--- a/script/downloads/file.xlsx
+++ b/script/downloads/file.xlsx
@@ -15,66 +15,1305 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>IdUsuario</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>FotoUsuario</t>
-  </si>
-  <si>
-    <t>Hash password</t>
-  </si>
-  <si>
-    <t>Reputacion</t>
-  </si>
-  <si>
-    <t>FechaNacimiento</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Estatura</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Milovan</t>
-  </si>
-  <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
-    <t>hola@mundo.cl</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
-    <t>e516f979536994a14d9b0500bca3a1287b9ea9fe</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>admin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Vernonxxxxx</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Ap #638-2444 Sem. Rd.</t>
+  </si>
+  <si>
+    <t>Wynne</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>ason</t>
+  </si>
+  <si>
+    <t>143 Pullman ave.</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>illinois</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Floyd less</t>
+  </si>
+  <si>
+    <t>2138 Mauris Rd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent </t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Ap #328-4231 Aliquam Ave</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Ap #119-6421 Vulputate St.</t>
+  </si>
+  <si>
+    <t>Laconia</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Leigh</t>
+  </si>
+  <si>
+    <t>Madden</t>
+  </si>
+  <si>
+    <t>1134 Commodo St.</t>
+  </si>
+  <si>
+    <t>Jeannette</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Pritesh</t>
+  </si>
+  <si>
+    <t>gupta</t>
+  </si>
+  <si>
+    <t>A 106 leeds Enclave</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Marsden</t>
+  </si>
+  <si>
+    <t>Mcknight</t>
+  </si>
+  <si>
+    <t>891-2555 Ligula Av.</t>
+  </si>
+  <si>
+    <t>Peekskill</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Demetria</t>
+  </si>
+  <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>Ap #400-7304 Vehicula Ave</t>
+  </si>
+  <si>
+    <t>Signal Hill</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Copeland</t>
+  </si>
+  <si>
+    <t>P.O. Box 940, 1713 Nunc Rd.</t>
+  </si>
+  <si>
+    <t>White Plains</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Hale</t>
+  </si>
+  <si>
+    <t>Ap #667-483 Vulputate, St.</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>09689</t>
+  </si>
+  <si>
+    <t>Tana</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>640-9421 Arcu. Avenue</t>
+  </si>
+  <si>
+    <t>Modesto</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Ap #775-8997 Nunc Avenue</t>
+  </si>
+  <si>
+    <t>Juneau</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Kirkland</t>
+  </si>
+  <si>
+    <t>P.O. Box 686, 9425 Morbi Road</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>5310 Vel, Avenue</t>
+  </si>
+  <si>
+    <t>Harrisburg</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>6383 Euismod Road</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Serina</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Ap #832-9968 Cras Rd.</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>02934</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Beasley</t>
+  </si>
+  <si>
+    <t>1146 Scelerisque, Road</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>P.O. Box 613, 193 Nullam St.</t>
+  </si>
+  <si>
+    <t>Bloomington</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>9747 Volutpat Road</t>
+  </si>
+  <si>
+    <t>Auburn Hills</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>7322 Sagittis. Av.</t>
+  </si>
+  <si>
+    <t>Schaumburg</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Rosalyn</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>P.O. Box 296, 6612 Est. Ave</t>
+  </si>
+  <si>
+    <t>Eatontown</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>P.O. Box 196, 4793 Volutpat. Rd.</t>
+  </si>
+  <si>
+    <t>Basin</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>03952</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>P.O. Box 599, 2455 Accumsan Avenue</t>
+  </si>
+  <si>
+    <t>Centennial</t>
+  </si>
+  <si>
+    <t>Kameko</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>181-6497 At Rd.</t>
+  </si>
+  <si>
+    <t>Nenana</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Mccarty</t>
+  </si>
+  <si>
+    <t>P.O. Box 588, 4717 Tellus. Street</t>
+  </si>
+  <si>
+    <t>Vicksburg</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>576-4991 Enim Av.</t>
+  </si>
+  <si>
+    <t>Johnstown</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>1951 Turpis. Street</t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>222-910 Amet Rd.</t>
+  </si>
+  <si>
+    <t>Tonawanda</t>
+  </si>
+  <si>
+    <t>04308</t>
+  </si>
+  <si>
+    <t>Kuame</t>
+  </si>
+  <si>
+    <t>Huffman</t>
+  </si>
+  <si>
+    <t>793-1081 In, Av.</t>
+  </si>
+  <si>
+    <t>South El Monte</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Xenos</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>437-3387 Arcu Road</t>
+  </si>
+  <si>
+    <t>Newburgh</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>05780</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>P.O. Box 138, 4309 Non Rd.</t>
+  </si>
+  <si>
+    <t>Opelousas</t>
+  </si>
+  <si>
+    <t>Deacon</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>156-1937 Ultrices Rd.</t>
+  </si>
+  <si>
+    <t>Spokane Valley</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>8472 Pellentesque Rd.</t>
+  </si>
+  <si>
+    <t>Chesapeake</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Zane</t>
+  </si>
+  <si>
+    <t>Calderon</t>
+  </si>
+  <si>
+    <t>739-7377 Nascetur Rd.</t>
+  </si>
+  <si>
+    <t>Elsmere</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Carney</t>
+  </si>
+  <si>
+    <t>3243 Lorem Ave</t>
+  </si>
+  <si>
+    <t>Shawnee</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>5263 Purus Ave</t>
+  </si>
+  <si>
+    <t>Lockport</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Gillian</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>P.O. Box 570, 1525 Magna Av.</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Gillespie</t>
+  </si>
+  <si>
+    <t>550-2279 Tellus, Ave</t>
+  </si>
+  <si>
+    <t>Missoula</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Risa</t>
+  </si>
+  <si>
+    <t>Ayers</t>
+  </si>
+  <si>
+    <t>Ap #948-9845 Mi Avenue</t>
+  </si>
+  <si>
+    <t>Pass Christian</t>
+  </si>
+  <si>
+    <t>Callum</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>178-516 Ultrices. Rd.</t>
+  </si>
+  <si>
+    <t>Fall River</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>03691</t>
+  </si>
+  <si>
+    <t>Nola</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Ap #185-9503 Sed Street</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Talon</t>
+  </si>
+  <si>
+    <t>Rowland</t>
+  </si>
+  <si>
+    <t>4575 Massa. Street</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Cheryl</t>
+  </si>
+  <si>
+    <t>Bowers</t>
+  </si>
+  <si>
+    <t>1348 Ut Rd.</t>
+  </si>
+  <si>
+    <t>Hutchinson</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Bree</t>
+  </si>
+  <si>
+    <t>Gaines</t>
+  </si>
+  <si>
+    <t>Ap #190-9800 Facilisi. Rd.</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Lacota</t>
+  </si>
+  <si>
+    <t>Bonner</t>
+  </si>
+  <si>
+    <t>3229 Felis. St.</t>
+  </si>
+  <si>
+    <t>Jenks</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>2339 Sit Rd.</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>2990 Malesuada Rd.</t>
+  </si>
+  <si>
+    <t>Williamsport</t>
+  </si>
+  <si>
+    <t>00409</t>
+  </si>
+  <si>
+    <t>Hilary</t>
+  </si>
+  <si>
+    <t>Conner</t>
+  </si>
+  <si>
+    <t>2000 Diam. Rd.</t>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>Zena</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>9604 Dolor Road</t>
+  </si>
+  <si>
+    <t>Palm Springs</t>
+  </si>
+  <si>
+    <t>Britanni</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>485-6357 Dictum Road</t>
+  </si>
+  <si>
+    <t>Bradbury</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Ap #318-2121 Sapien Rd.</t>
+  </si>
+  <si>
+    <t>Kettering</t>
+  </si>
+  <si>
+    <t>Madeson</t>
+  </si>
+  <si>
+    <t>Robbins</t>
+  </si>
+  <si>
+    <t>P.O. Box 690, 861 Magna. Avenue</t>
+  </si>
+  <si>
+    <t>Bismarck</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>P.O. Box 629, 2724 Velit. Av.</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Ap #209-5365 Pulvinar Road</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Mikayla</t>
+  </si>
+  <si>
+    <t>Mendez</t>
+  </si>
+  <si>
+    <t>P.O. Box 244, 1762 Libero. Ave</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>192-1646 Hendrerit. St.</t>
+  </si>
+  <si>
+    <t>Chicopee</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Terrell</t>
+  </si>
+  <si>
+    <t>P.O. Box 107, 7190 Augue, Rd.</t>
+  </si>
+  <si>
+    <t>Statesboro</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>P.O. Box 358, 4774 Sagittis Street</t>
+  </si>
+  <si>
+    <t>Fairmont</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Gilmore</t>
+  </si>
+  <si>
+    <t>546-292 Venenatis St.</t>
+  </si>
+  <si>
+    <t>Sandpoint</t>
+  </si>
+  <si>
+    <t>Meghan</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>1845 Consectetuer Av.</t>
+  </si>
+  <si>
+    <t>Blacksburg</t>
+  </si>
+  <si>
+    <t>09551</t>
+  </si>
+  <si>
+    <t>Lillith</t>
+  </si>
+  <si>
+    <t>P.O. Box 495, 7797 Leo. Ave</t>
+  </si>
+  <si>
+    <t>Augusta</t>
+  </si>
+  <si>
+    <t>Jaquelyn</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>795-3722 Lectus. Street</t>
+  </si>
+  <si>
+    <t>Alpharetta</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Karly</t>
+  </si>
+  <si>
+    <t>Beard</t>
+  </si>
+  <si>
+    <t>370-8115 Mus. Ave</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>9070 Ante, Av.</t>
+  </si>
+  <si>
+    <t>Somersworth</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Ap #387-6244 Malesuada Av.</t>
+  </si>
+  <si>
+    <t>Clarksville</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>P.O. Box 220, 5319 Faucibus Ave</t>
+  </si>
+  <si>
+    <t>West Lafayette</t>
+  </si>
+  <si>
+    <t>Sybil</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>502-6016 Ultrices, Road</t>
+  </si>
+  <si>
+    <t>Santa Clarita</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>Ap #387-9280 Dui, Avenue</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Kirsten</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>P.O. Box 548, 6344 Sit Av.</t>
+  </si>
+  <si>
+    <t>Benton Harbor</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>4356 Lorem, Ave</t>
+  </si>
+  <si>
+    <t>Valdez</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Ap #705-2124 Phasellus Rd.</t>
+  </si>
+  <si>
+    <t>Reedsport</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>9353 Rutrum Av.</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Mcconnell</t>
+  </si>
+  <si>
+    <t>P.O. Box 144, 1027 Aliquam Avenue</t>
+  </si>
+  <si>
+    <t>Yazoo City</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>P.O. Box 902, 1916 Vel, Road</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>Leblanc</t>
+  </si>
+  <si>
+    <t>Ap #479-3210 Magnis Street</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Cassidy</t>
+  </si>
+  <si>
+    <t>Dyer</t>
+  </si>
+  <si>
+    <t>P.O. Box 169, 959 Et, Road</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>8469 Eu Road</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>8826 Erat St.</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Avye</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>Ap #942-4652 Aliquam Rd.</t>
+  </si>
+  <si>
+    <t>Roseville</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Ap #939-5888 Mollis. Rd.</t>
+  </si>
+  <si>
+    <t>Rolling Hills Estates</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>P.O. Box 422, 2469 Curabitur Rd.</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>249 Sed Street</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>05518</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>173-245 Arcu. Ave</t>
+  </si>
+  <si>
+    <t>Temecula</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Ap #542-5775 Nibh Rd.</t>
+  </si>
+  <si>
+    <t>Sun Valley</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>P.O. Box 292, 8217 Vel Avenue</t>
+  </si>
+  <si>
+    <t>Half Moon Bay</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Teegan</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>5503 Odio, Rd.</t>
+  </si>
+  <si>
+    <t>GuÃ¡nica</t>
+  </si>
+  <si>
+    <t>Quemby</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>200-5264 Laoreet Ave</t>
+  </si>
+  <si>
+    <t>Orangeburg</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>348-9080 Ultrices Rd.</t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
+  </si>
+  <si>
+    <t>avel</t>
+  </si>
+  <si>
+    <t>502-9689 Ante Street</t>
+  </si>
+  <si>
+    <t>Hartland</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Ap #685-1260 Velit Avenue</t>
+  </si>
+  <si>
+    <t>Hebert</t>
+  </si>
+  <si>
+    <t>4393 Sodales Av.</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adan </t>
+  </si>
+  <si>
+    <t>rivera</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>heredia</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>segdsf</t>
+  </si>
+  <si>
+    <t>dgsdfgs</t>
+  </si>
+  <si>
+    <t>dfgsdfgsdfg</t>
+  </si>
+  <si>
+    <t>sdfgsdfg</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -413,7 +1652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +1660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,56 +1682,2328 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G2">
+        <v>14715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="G3">
+        <v>91391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>94619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>34848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>426494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>64702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>38453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>32448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>98831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>90815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>18307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>93246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>15122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>14148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19">
+        <v>10668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>59983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>85244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22">
+        <v>97495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>88032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <v>61389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27">
+        <v>67362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28">
+        <v>72504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29">
+        <v>14187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31">
+        <v>80857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>93062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34">
+        <v>76778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35">
+        <v>66729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>62940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37">
+        <v>22241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38">
+        <v>40334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39">
+        <v>30771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40">
+        <v>96349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41">
+        <v>72881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43">
+        <v>77099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>37429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" t="s">
+        <v>218</v>
+      </c>
+      <c r="G45">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46">
+        <v>62391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47">
+        <v>54999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48">
+        <v>83323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>50683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51">
+        <v>93143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52">
+        <v>48121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53">
+        <v>74815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>37748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>34490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56">
+        <v>37920</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>28431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58">
+        <v>94701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" t="s">
+        <v>279</v>
+      </c>
+      <c r="G59">
+        <v>36440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60">
+        <v>37251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61">
+        <v>35643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64">
+        <v>91617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E65" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65">
+        <v>78062</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" t="s">
+        <v>308</v>
+      </c>
+      <c r="F66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66">
+        <v>87594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" t="s">
+        <v>312</v>
+      </c>
+      <c r="F67" t="s">
+        <v>313</v>
+      </c>
+      <c r="G67">
+        <v>24386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>315</v>
+      </c>
+      <c r="D68" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68">
+        <v>49890</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" t="s">
+        <v>323</v>
+      </c>
+      <c r="D70" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>325</v>
+      </c>
+      <c r="F70" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70">
+        <v>75674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" t="s">
+        <v>330</v>
+      </c>
+      <c r="F71" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71">
+        <v>65775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72">
+        <v>37102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>335</v>
+      </c>
+      <c r="C73" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73" t="s">
+        <v>338</v>
+      </c>
+      <c r="F73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73">
+        <v>74040</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" t="s">
+        <v>342</v>
+      </c>
+      <c r="G74">
+        <v>89592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>343</v>
+      </c>
+      <c r="C75" t="s">
+        <v>344</v>
+      </c>
+      <c r="D75" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" t="s">
+        <v>346</v>
+      </c>
+      <c r="F75" t="s">
+        <v>190</v>
+      </c>
+      <c r="G75">
+        <v>84334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>348</v>
+      </c>
+      <c r="D76" t="s">
+        <v>349</v>
+      </c>
+      <c r="E76" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <v>91414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" t="s">
+        <v>352</v>
+      </c>
+      <c r="D77" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>354</v>
+      </c>
+      <c r="F77" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77">
+        <v>89834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" t="s">
+        <v>356</v>
+      </c>
+      <c r="D78" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" t="s">
+        <v>358</v>
+      </c>
+      <c r="G78">
+        <v>71212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>359</v>
+      </c>
+      <c r="C79" t="s">
+        <v>360</v>
+      </c>
+      <c r="D79" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" t="s">
+        <v>362</v>
+      </c>
+      <c r="F79" t="s">
+        <v>363</v>
+      </c>
+      <c r="G79">
+        <v>14459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" t="s">
+        <v>365</v>
+      </c>
+      <c r="D80" t="s">
+        <v>366</v>
+      </c>
+      <c r="E80" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80">
+        <v>22844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" t="s">
+        <v>370</v>
+      </c>
+      <c r="E81" t="s">
+        <v>371</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" t="s">
+        <v>279</v>
+      </c>
+      <c r="G82">
+        <v>72412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" t="s">
+        <v>376</v>
+      </c>
+      <c r="D83" t="s">
+        <v>377</v>
+      </c>
+      <c r="E83" t="s">
+        <v>378</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83">
+        <v>64889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" t="s">
+        <v>379</v>
+      </c>
+      <c r="D84" t="s">
+        <v>380</v>
+      </c>
+      <c r="E84" t="s">
+        <v>381</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" t="s">
+        <v>386</v>
+      </c>
+      <c r="F85" t="s">
+        <v>387</v>
+      </c>
+      <c r="G85">
+        <v>91680</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>388</v>
+      </c>
+      <c r="C86" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" t="s">
+        <v>390</v>
+      </c>
+      <c r="E86" t="s">
+        <v>391</v>
+      </c>
+      <c r="F86" t="s">
+        <v>392</v>
+      </c>
+      <c r="G86">
+        <v>31014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" t="s">
+        <v>395</v>
+      </c>
+      <c r="E87" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87">
+        <v>92194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>398</v>
+      </c>
+      <c r="C88" t="s">
+        <v>399</v>
+      </c>
+      <c r="D88" t="s">
+        <v>400</v>
+      </c>
+      <c r="E88" t="s">
+        <v>401</v>
+      </c>
+      <c r="F88" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88">
+        <v>12336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>402</v>
+      </c>
+      <c r="C89" t="s">
+        <v>403</v>
+      </c>
+      <c r="D89" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" t="s">
+        <v>405</v>
+      </c>
+      <c r="F89" t="s">
+        <v>300</v>
+      </c>
+      <c r="G89">
+        <v>93197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>406</v>
+      </c>
+      <c r="C90" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" t="s">
+        <v>409</v>
+      </c>
+      <c r="F90" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90">
+        <v>74732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" t="s">
+        <v>403</v>
+      </c>
+      <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" t="s">
+        <v>412</v>
+      </c>
+      <c r="F91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91">
+        <v>81261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>413</v>
+      </c>
+      <c r="C92" t="s">
+        <v>414</v>
+      </c>
+      <c r="D92" t="s">
+        <v>415</v>
+      </c>
+      <c r="E92" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92">
+        <v>21141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>393</v>
+      </c>
+      <c r="C93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93">
+        <v>25787</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94" t="s">
+        <v>420</v>
+      </c>
+      <c r="D94" t="s">
+        <v>421</v>
+      </c>
+      <c r="E94" t="s">
+        <v>422</v>
+      </c>
+      <c r="F94" t="s">
+        <v>423</v>
+      </c>
+      <c r="G94">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>165</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>19</v>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>424</v>
+      </c>
+      <c r="C95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D95" t="s">
+        <v>426</v>
+      </c>
+      <c r="E95" t="s">
+        <v>427</v>
+      </c>
+      <c r="F95" t="s">
+        <v>428</v>
+      </c>
+      <c r="G95">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" t="s">
+        <v>429</v>
+      </c>
+      <c r="G96">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>429</v>
+      </c>
+      <c r="G97">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s">
+        <v>430</v>
+      </c>
+      <c r="G98">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>114</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s">
+        <v>430</v>
+      </c>
+      <c r="G99">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>115</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" t="s">
+        <v>431</v>
+      </c>
+      <c r="G100">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>116</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
+        <v>432</v>
+      </c>
+      <c r="G101">
+        <v>452005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" t="s">
+        <v>430</v>
+      </c>
+      <c r="G102">
+        <v>452005</v>
       </c>
     </row>
   </sheetData>
